--- a/official_results/baseline_CNN_results.xlsx
+++ b/official_results/baseline_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.87244487493751</v>
+        <v>5.683873130110186</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -536,21 +536,21 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>48 of 300</t>
+          <t>57 of 300</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>15:11:40</t>
+          <t>10:35:18</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>218.61</v>
+        <v>259.58</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.003038021628321</v>
+        <v>5.095057771640672</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -599,21 +599,21 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>71 of 300</t>
+          <t>54 of 300</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>15:16:48</t>
+          <t>10:39:12</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>305.95</v>
+        <v>232.63</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -621,15 +621,15 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.532910138948437</v>
+        <v>5.064374521945371</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -662,21 +662,21 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>64 of 300</t>
+          <t>102 of 300</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15:19:51</t>
+          <t>10:49:56</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>181.27</v>
+        <v>292.51</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -684,33 +684,33 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.963710914493358</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.046652305316684</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>lst</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>74 cells</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>stratified</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -725,21 +725,21 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>75 of 300</t>
+          <t>119 of 300</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>15:23:18</t>
+          <t>10:55:22</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>204.64</v>
+        <v>323.51</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4.988381988986773</v>
+        <v>5.005168867036448</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>133 of 300</t>
+          <t>74 of 300</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>15:27:52</t>
+          <t>10:57:50</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>272.54</v>
+        <v>146.31</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -818,7 +818,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5.233389795875351</v>
+        <v>5.699383102731933</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -847,41 +847,41 @@
         <v>1487</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>58 of 300</t>
+          <t>61 of 300</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>15:29:55</t>
+          <t>10:59:52</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>287.89</v>
+        <v>120.38</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>4.775533126573963</v>
+        <v>5.460046978195858</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -910,41 +910,41 @@
         <v>1487</v>
       </c>
       <c r="I8" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>111 of 300</t>
+          <t>96 of 300</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>15:31:48</t>
+          <t>11:23:55</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>233.6</v>
+        <v>433.39</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Physics-guided</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5.175078410328972</v>
+        <v>5.048739673019012</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -977,21 +977,21 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>54 of 300</t>
+          <t>66 of 300</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>15:34:07</t>
+          <t>11:28:42</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250.21</v>
+        <v>284.93</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -999,15 +999,15 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>5.530199818894502</v>
+        <v>5.440473870929801</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1036,25 +1036,25 @@
         <v>1487</v>
       </c>
       <c r="I10" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>104 of 300</t>
+          <t>101 of 300</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>15:34:22</t>
+          <t>11:33:29</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>494.73</v>
+        <v>285.62</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1062,15 +1062,15 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>5.474341763277049</v>
+        <v>5.082831571856782</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1099,25 +1099,25 @@
         <v>1487</v>
       </c>
       <c r="I11" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>46 of 300</t>
+          <t>98 of 300</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>15:37:45</t>
+          <t>11:38:02</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200.47</v>
+        <v>270.29</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1125,15 +1125,15 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>5.486280925157798</v>
+        <v>4.931395528205666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1162,25 +1162,25 @@
         <v>1487</v>
       </c>
       <c r="I12" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>116 of 300</t>
+          <t>133 of 300</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>15:39:55</t>
+          <t>11:42:30</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>345.54</v>
+        <v>266.92</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1188,15 +1188,15 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>5.138927778931869</v>
+        <v>5.243205887572339</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1225,25 +1225,25 @@
         <v>1487</v>
       </c>
       <c r="I13" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>64 of 300</t>
+          <t>79 of 300</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>15:43:03</t>
+          <t>11:45:08</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>186.65</v>
+        <v>155.88</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1251,15 +1251,15 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4.885785086252452</v>
+        <v>5.554938553847407</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1288,25 +1288,25 @@
         <v>1487</v>
       </c>
       <c r="I14" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>119 of 300</t>
+          <t>161 of 300</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>15:43:28</t>
+          <t>12:13:04</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>341.43</v>
+        <v>725.34</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1314,15 +1314,15 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5.20516143624562</v>
+        <v>5.812519422639038</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1351,41 +1351,41 @@
         <v>1487</v>
       </c>
       <c r="I15" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>123 of 300</t>
+          <t>121 of 300</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>15:47:30</t>
+          <t>12:21:45</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>265.1</v>
+        <v>518.96</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>4.77810040474604</v>
+        <v>5.359683623401139</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1418,37 +1418,37 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>108 of 300</t>
+          <t>113 of 300</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>15:48:31</t>
+          <t>12:27:10</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>301.57</v>
+        <v>323.63</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Physics-guided</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>5.102245810351469</v>
+        <v>5.152559727965203</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1477,25 +1477,25 @@
         <v>1487</v>
       </c>
       <c r="I17" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>138 of 300</t>
+          <t>114 of 300</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>15:52:23</t>
+          <t>12:32:26</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>290.87</v>
+        <v>314.19</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1503,15 +1503,15 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B18" t="n">
-        <v>4.888247603008883</v>
+        <v>5.214638351744941</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1544,21 +1544,21 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>149 of 300</t>
+          <t>142 of 300</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>15:53:35</t>
+          <t>12:37:14</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>301.87</v>
+        <v>286.03</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1566,15 +1566,15 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>4.968356351492794</v>
+        <v>4.8707608703424</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1607,21 +1607,21 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>144 of 300</t>
+          <t>124 of 300</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>15:58:21</t>
+          <t>12:41:19</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>284.47</v>
+        <v>243.46</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1629,7 +1629,4039 @@
         </is>
       </c>
       <c r="O19" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.573970517180914</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I20" t="n">
+        <v>32</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>59 of 300</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>13:26:36</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>281.19</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.328999441909312</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I21" t="n">
+        <v>32</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>39 of 300</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>13:29:34</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>176.64</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.21586166914258</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I22" t="n">
+        <v>32</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>111 of 300</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>13:30:53</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>513.96</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.474072957422228</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I23" t="n">
         <v>64</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>47 of 300</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>13:31:57</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>140.86</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.455870530203976</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I24" t="n">
+        <v>32</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>135 of 300</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>13:33:42</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>636.99</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.971366649944374</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I25" t="n">
+        <v>64</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>88 of 300</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>13:36:11</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>252.55</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.211221606612931</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I26" t="n">
+        <v>32</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>86 of 300</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>13:37:23</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>388.75</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.691406977401773</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>80 of 300</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>13:39:44</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.728682732581579</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I28" t="n">
+        <v>64</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>48 of 300</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>13:39:50</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>144.44</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.049140908379188</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I29" t="n">
+        <v>128</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>107 of 300</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>13:40:01</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>228.21</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.244674775647144</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I30" t="n">
+        <v>64</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>80 of 300</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>13:43:34</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>228.38</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.126424826104945</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I31" t="n">
+        <v>64</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>90 of 300</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>13:44:16</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>264.44</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.785401093354067</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I32" t="n">
+        <v>128</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>133 of 300</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>13:44:42</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>278.53</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5.265470500881436</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I33" t="n">
+        <v>64</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>88 of 300</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>13:47:38</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>242.14</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>19</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5.046002178597244</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I34" t="n">
+        <v>128</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>134 of 300</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>13:49:00</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>282.54</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.750032474202941</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I35" t="n">
+        <v>128</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>114 of 300</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>13:52:52</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>230.55</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>19</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5.079881713173478</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I36" t="n">
+        <v>128</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>171 of 300</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>13:53:24</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>344.17</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.871873529679003</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I37" t="n">
+        <v>128</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>193 of 300</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>13:59:44</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>378.09</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.885542633063809</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I38" t="n">
+        <v>128</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>111 of 300</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>14:24:39</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.962777475318471</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I39" t="n">
+        <v>128</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>137 of 300</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>14:26:24</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>218.26</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.923957174689702</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I40" t="n">
+        <v>128</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>109 of 300</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>14:37:29</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>179.43</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5.01314617532527</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I41" t="n">
+        <v>128</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>149 of 300</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>14:49:25</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>300.96</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5.022630075279162</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I42" t="n">
+        <v>128</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>131 of 300</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>14:49:51</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>269.79</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5.045939292844934</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>SGD w/ dynamic-lr, momentum 0.9 &amp; nesterov</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I43" t="n">
+        <v>128</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>150 of 300</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>15:11:30</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>263.62</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.972216449330498</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>SGD w/ dynamic-lr, momentum 0.9 &amp; nesterov</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I44" t="n">
+        <v>128</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>104 of 300</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>15:22:32</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>178.7</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5.057353951155088</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I45" t="n">
+        <v>128</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>140 of 300</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>15:37:42</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>288.48</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5.011759410652118</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I46" t="n">
+        <v>128</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>118 of 300</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>15:38:21</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>246.9</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.853448691596679</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I47" t="n">
+        <v>128</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>113 of 300</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>15:39:22</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>230.11</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5.058353670798377</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I48" t="n">
+        <v>128</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>139 of 300</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>15:55:36</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>276.64</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5.534032932708518</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I49" t="n">
+        <v>128</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>167 of 300</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>16:00:56</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>335.89</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.928191759511259</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>lst, ndvi, altitude, direction, slope</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I50" t="n">
+        <v>128</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>137 of 300</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>16:01:00</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>284.8</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.848933563288807</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I51" t="n">
+        <v>128</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>76 of 300</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>16:12:50</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>174.65</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.78371406660313</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I52" t="n">
+        <v>128</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>57 of 300</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>16:12:54</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5.060117766863429</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>lst, ndvi, altitude, direction, slope, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I53" t="n">
+        <v>128</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>60 of 300</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>16:18:36</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>137.81</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5.387236618776803</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I54" t="n">
+        <v>64</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>37 of 300</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>16:44:19</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>125.14</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.697188628241437</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I55" t="n">
+        <v>64</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>38 of 300</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>16:44:36</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>131.21</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5.649191927110312</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I56" t="n">
+        <v>64</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>37 of 300</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>16:46:23</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>121.88</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.199147718528399</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I57" t="n">
+        <v>64</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>101 of 300</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>16:47:36</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>327.78</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.872344830159833</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I58" t="n">
+        <v>64</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>104 of 300</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>16:50:27</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>349.04</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5.475733437986309</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I59" t="n">
+        <v>64</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>64 of 300</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>16:51:06</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>208.14</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.924372152428972</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I60" t="n">
+        <v>64</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>116 of 300</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>16:52:43</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>378.54</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>55</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5.770964656267419</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I61" t="n">
+        <v>64</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>45 of 300</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>16:53:03</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>153.82</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5.215970383413482</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I62" t="n">
+        <v>64</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>80 of 300</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>16:55:29</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>260.04</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5.236002116268477</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I63" t="n">
+        <v>64</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>71 of 300</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>16:56:05</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>200.56</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5.009114750268739</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I64" t="n">
+        <v>64</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>78 of 300</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>16:56:52</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>226.94</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5.255672326271852</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I65" t="n">
+        <v>64</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>74 of 300</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>16:58:59</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>208.27</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.634157286062327</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>92 of 300</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>17:00:31</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>263.09</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.803296036496467</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I67" t="n">
+        <v>64</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>88 of 300</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>17:01:12</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>258.13</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5.49860623902076</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I68" t="n">
+        <v>64</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>52 of 300</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>17:01:36</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>154.91</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>55</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4.905107151815185</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I69" t="n">
+        <v>64</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>64 of 300</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>17:03:35</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>182.74</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>55</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.976995147462745</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I70" t="n">
+        <v>64</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>61 of 300</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>17:04:32</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>173.19</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>55</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.762911502503793</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I71" t="n">
+        <v>64</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>75 of 300</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>17:04:52</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>218.35</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8.203907270209406</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I72" t="n">
+        <v>128</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>37 of 300</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>17:05:00</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7.503607523327403</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I73" t="n">
+        <v>128</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>44 of 300</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>17:06:33</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>98.88</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6.606473941675239</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I74" t="n">
+        <v>128</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>51 of 300</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>17:06:52</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>110.44</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.140314117594213</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I75" t="n">
+        <v>128</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>51 of 300</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>17:08:29</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>114.19</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>55</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7.168861914206522</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I76" t="n">
+        <v>128</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>50 of 300</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>17:08:43</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>108.84</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>55</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7.622931236261439</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I77" t="n">
+        <v>128</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>52 of 300</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>17:10:27</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>116.15</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>53</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4.868679209114467</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I78" t="n">
+        <v>128</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>110 of 300</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>17:12:17</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>212.21</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>53</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.901533463489963</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I79" t="n">
+        <v>128</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>98 of 300</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>17:13:47</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>197.53</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.999912863027847</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I80" t="n">
+        <v>128</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>187 of 300</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>17:18:20</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>361.31</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5.013105104782163</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I81" t="n">
+        <v>128</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>142 of 300</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>17:18:33</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>284.48</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>55</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.92069940894169</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I82" t="n">
+        <v>128</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>117 of 300</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>17:22:29</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>234.15</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>55</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.995941415514971</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I83" t="n">
+        <v>128</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>151 of 300</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>17:23:13</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>291.09</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/official_results/baseline_CNN_results.xlsx
+++ b/official_results/baseline_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5664,6 +5664,4542 @@
         <v>8</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5.556344775965736</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I84" t="n">
+        <v>32</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>36 of 300</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>10:45:08</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>196.23</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5.208597098596154</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>47 of 300</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>10:45:14</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>252.51</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>83</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5.247090340265544</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I86" t="n">
+        <v>32</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>36 of 300</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>10:45:36</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>201.68</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>84</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5.934708260030243</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I87" t="n">
+        <v>32</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>33 of 300</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>10:48:39</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>181.56</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>84</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.063381165888492</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I88" t="n">
+        <v>32</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>47 of 300</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>10:49:29</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>253.26</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>85</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5.292077340355028</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I89" t="n">
+        <v>32</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>37 of 300</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>10:52:05</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>204.2</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>85</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.397179587406718</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I90" t="n">
+        <v>32</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>46 of 300</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>10:53:40</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>249.06</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>83</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5.090330957394682</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I91" t="n">
+        <v>32</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>57 of 300</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>10:56:28</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>260.97</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>83</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.712780733420765</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I92" t="n">
+        <v>32</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>54 of 300</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>10:57:46</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>244.08</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>84</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5.809815371341253</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I93" t="n">
+        <v>32</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>143 of 300</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>10:58:27</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>797.3</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>84</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5.375015550044661</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I94" t="n">
+        <v>32</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>58 of 300</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>11:00:57</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>266.91</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>85</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5.7935584573617</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I95" t="n">
+        <v>32</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>37 of 300</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>11:01:55</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>206.56</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>84</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5.862836219547072</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I96" t="n">
+        <v>32</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>88 of 300</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>11:04:21</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>393.19</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>85</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5.051115902895138</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I97" t="n">
+        <v>32</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>50 of 300</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>11:04:50</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>230.69</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>83</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.068947328985716</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I98" t="n">
+        <v>32</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>67 of 300</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>11:06:55</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>298.09</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>83</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.133473336032108</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I99" t="n">
+        <v>64</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>38 of 300</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>11:07:00</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>128.09</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>85</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6.216938109774304</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I100" t="n">
+        <v>32</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>43 of 300</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>11:07:37</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>193.69</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>84</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5.508387737216968</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I101" t="n">
+        <v>64</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>39 of 300</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>11:09:14</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>132.35</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>84</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.951562310007036</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I102" t="n">
+        <v>32</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>50 of 300</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>11:10:40</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>222.45</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>85</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.210556603136546</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I103" t="n">
+        <v>64</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>34 of 300</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>11:11:12</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>115.71</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>83</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.745815799106837</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I104" t="n">
+        <v>64</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>76 of 300</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>11:11:52</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>85</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5.036272860454619</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I105" t="n">
+        <v>32</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>48 of 300</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>11:14:15</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>213.68</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>83</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.927931006933661</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I106" t="n">
+        <v>64</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>88 of 300</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>11:15:30</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>256.28</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>84</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5.681536445855245</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I107" t="n">
+        <v>64</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>66 of 300</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>11:15:35</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>221.11</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>83</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5.87466553052843</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I108" t="n">
+        <v>64</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>41 of 300</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>11:16:33</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>136.03</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>84</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6.397312294554911</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I109" t="n">
+        <v>64</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>36 of 300</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>11:18:34</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>119.25</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O109" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>85</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5.213866673368995</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I110" t="n">
+        <v>64</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>68 of 300</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>11:19:22</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>225.84</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>84</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.919010349973659</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I111" t="n">
+        <v>64</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>92 of 300</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>11:19:59</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>85</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.077290125898493</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>3</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I112" t="n">
+        <v>64</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>38 of 300</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>11:20:42</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>125.43</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>83</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.819217441022618</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I113" t="n">
+        <v>64</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>77 of 300</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>11:23:08</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>85</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.870656002221926</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I114" t="n">
+        <v>64</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>85 of 300</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>11:24:11</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>249.42</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>83</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.946283129164914</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I115" t="n">
+        <v>64</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>100 of 300</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>11:25:26</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>282.15</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>84</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5.393418021405849</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I116" t="n">
+        <v>64</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>67 of 300</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>11:26:24</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>193.56</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>83</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.471385009641674</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I117" t="n">
+        <v>128</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>57 of 300</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>11:26:26</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>133.66</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>84</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8.794477253940491</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I118" t="n">
+        <v>128</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>45 of 300</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>11:28:15</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>106.78</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>85</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8.819809833719662</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>3</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I119" t="n">
+        <v>128</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>40 of 300</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>11:29:51</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>85</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5.293812662669525</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>3</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I120" t="n">
+        <v>64</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>83 of 300</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>11:30:27</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>241.52</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>84</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.001523598565178</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I121" t="n">
+        <v>64</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>106 of 300</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>11:30:28</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>300.24</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>85</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.961615428229524</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>3</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I122" t="n">
+        <v>64</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>48 of 300</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>11:32:45</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>135.69</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>83</v>
+      </c>
+      <c r="B123" t="n">
+        <v>8.552807515692399</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I123" t="n">
+        <v>128</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>45 of 300</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>11:34:29</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>101.37</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>83</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.771600612695048</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I124" t="n">
+        <v>128</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>139 of 300</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>11:34:32</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>279.55</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>84</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.143699373499699</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I125" t="n">
+        <v>128</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>51 of 300</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>11:36:26</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>115.57</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>85</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9.267200967459697</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>3</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I126" t="n">
+        <v>128</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>45 of 300</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>11:38:11</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>103.09</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>84</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.798710637589388</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I127" t="n">
+        <v>128</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>146 of 300</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>11:39:31</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>296.89</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>85</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.999810885715946</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>3</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I128" t="n">
+        <v>128</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>63 of 300</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>11:41:44</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>131.27</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>83</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.702397479489886</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I129" t="n">
+        <v>128</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>130 of 300</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>11:42:38</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>264.94</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>126</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5.675978894306211</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I130" t="n">
+        <v>32</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>42 of 300</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>11:43:15</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>231.39</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>84</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.872916942217208</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I131" t="n">
+        <v>128</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>120 of 300</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>11:46:48</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>248.46</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O131" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>127</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5.305581402440145</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I132" t="n">
+        <v>32</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>55 of 300</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>11:48:18</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>300.35</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>85</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.812729022469219</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>3</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I133" t="n">
+        <v>128</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>168 of 300</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>11:52:43</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>353.2</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>128</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5.353764035722961</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>3</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I134" t="n">
+        <v>32</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>50 of 300</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>11:52:53</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>126</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5.184078991450614</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I135" t="n">
+        <v>32</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>61 of 300</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>11:57:27</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>272.34</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O135" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>127</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.399655499776461</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>2</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I136" t="n">
+        <v>32</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>60 of 300</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>12:01:54</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>264.77</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>128</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5.292974250070741</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>3</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I137" t="n">
+        <v>32</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>51 of 300</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>12:05:45</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>228.22</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O137" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>126</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.067947954714414</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I138" t="n">
+        <v>64</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>78 of 300</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>12:10:01</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>254.49</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O138" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>127</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5.698087799290299</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I139" t="n">
+        <v>64</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>110 of 300</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>12:16:05</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>361.74</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O139" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>128</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.82903226979041</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>3</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I140" t="n">
+        <v>64</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>140 of 300</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>12:23:45</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>458.2</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O140" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>126</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5.17052196738531</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I141" t="n">
+        <v>64</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>74 of 300</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>12:27:20</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>211.93</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>127</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.512761510380677</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I142" t="n">
+        <v>64</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>104 of 300</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>12:32:18</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>296.14</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O142" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>128</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.783580137411052</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I143" t="n">
+        <v>64</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>94 of 300</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>12:36:47</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>266.65</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>126</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.815279924177247</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I144" t="n">
+        <v>128</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>113 of 300</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>12:41:03</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>254.29</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>127</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.120828341663333</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I145" t="n">
+        <v>128</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>51 of 300</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>12:43:01</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>116.07</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O145" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>128</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5.147548183778337</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I146" t="n">
+        <v>128</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>56 of 300</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>12:45:12</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>128.07</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O146" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>126</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.90520008493371</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I147" t="n">
+        <v>128</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>154 of 300</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>12:50:28</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>314.36</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O147" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>127</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.064616859725698</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I148" t="n">
+        <v>128</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>154 of 300</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>12:55:43</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>312.24</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>128</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.855098025594012</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I149" t="n">
+        <v>128</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>123 of 300</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>12:59:56</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>251.59</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O149" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5.658870225055633</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I150" t="n">
+        <v>32</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>43 of 300</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>14:23:19</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>235.53</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O150" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.903349602746042</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I151" t="n">
+        <v>32</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>54 of 300</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>14:28:12</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>289.55</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O151" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.80303261569135</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I152" t="n">
+        <v>128</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>152 of 300</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>15:01:32</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>296.81</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O152" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.797291709159635</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I153" t="n">
+        <v>128</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>164 of 300</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>15:10:45</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>313.18</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O153" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.720388174119231</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I154" t="n">
+        <v>32</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>41 of 300</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>15:46:05</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>222.97</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O154" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5.417877798168785</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I155" t="n">
+        <v>32</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>92 of 300</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>15:54:27</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>499.36</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O155" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/official_results/baseline_CNN_results.xlsx
+++ b/official_results/baseline_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10200,6 +10200,2400 @@
         <v>64</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.946535374795823</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>3</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I156" t="n">
+        <v>32</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>43 of 300</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>15:58:21</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>231.66</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O156" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>153</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5.685964370674445</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I157" t="n">
+        <v>32</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>50 of 300</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>16:02:06</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O157" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>154</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.932219347335133</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I158" t="n">
+        <v>32</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>59 of 300</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>16:06:34</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>264.78</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O158" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>155</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5.401534902852383</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I159" t="n">
+        <v>32</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>56 of 300</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>16:10:46</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>250.37</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O159" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>153</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5.561657950732105</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I160" t="n">
+        <v>64</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>108 of 300</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>16:16:43</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>353.95</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O160" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>154</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5.726417365219942</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>2</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I161" t="n">
+        <v>64</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>73 of 300</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>16:20:45</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>239.64</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O161" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>155</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.778567362251088</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>3</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I162" t="n">
+        <v>64</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>128 of 300</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>16:27:50</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>422.32</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O162" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>153</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.6953048555999</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I163" t="n">
+        <v>64</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>78 of 300</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>16:31:35</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>222.52</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O163" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>154</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.977455751533226</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>2</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I164" t="n">
+        <v>64</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>90 of 300</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>16:36:00</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>262.32</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O164" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>155</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.764759613717876</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I165" t="n">
+        <v>64</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>61 of 300</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>16:39:04</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O165" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>153</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.714050583471509</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I166" t="n">
+        <v>128</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>66 of 300</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>16:41:44</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>157.29</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O166" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>154</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.506993123662556</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>2</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I167" t="n">
+        <v>128</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>67 of 300</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>16:44:25</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O167" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>155</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.091716265774802</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>3</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I168" t="n">
+        <v>128</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>77 of 300</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>16:47:28</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>180.44</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O168" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>153</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.983491014381862</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I169" t="n">
+        <v>128</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>148 of 300</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>16:52:40</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>309.48</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O169" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>154</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.936630851116588</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>2</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I170" t="n">
+        <v>128</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>116 of 300</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>16:56:48</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>245.45</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O170" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>155</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.032024697501484</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>3</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I171" t="n">
+        <v>128</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>159 of 300</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>17:02:24</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>332.94</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O171" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.679202010526768</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, direction, altitude, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I172" t="n">
+        <v>128</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>70 of 300</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>13:34:36</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>162.29</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O172" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.343397632547254</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>850</v>
+      </c>
+      <c r="I173" t="n">
+        <v>128</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>146 of 300</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>13:41:28</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>208.33</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O173" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.396033227251002</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>2</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>850</v>
+      </c>
+      <c r="I174" t="n">
+        <v>128</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>80 of 300</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>13:43:19</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>110.02</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O174" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>13.97886537117247</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>3</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>850</v>
+      </c>
+      <c r="I175" t="n">
+        <v>128</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>31 of 300</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>13:44:04</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>43.38</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O175" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>7.616661149852932</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>850</v>
+      </c>
+      <c r="I176" t="n">
+        <v>16</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>43 of 300</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>14:12:30</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>234.15</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O176" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.878467311942411</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>lst, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>850</v>
+      </c>
+      <c r="I177" t="n">
+        <v>16</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>51 of 300</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>14:13:59</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>275.99</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O177" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>382.3777150522561</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>850</v>
+      </c>
+      <c r="I178" t="n">
+        <v>16</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>42 of 300</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>14:16:19</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>227.97</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O178" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>176</v>
+      </c>
+      <c r="B179" t="n">
+        <v>21.68228355899212</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>lst, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>2</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>850</v>
+      </c>
+      <c r="I179" t="n">
+        <v>16</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>49 of 300</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>14:18:23</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>262.65</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O179" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>177</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6.437095751302877</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>3</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>850</v>
+      </c>
+      <c r="I180" t="n">
+        <v>16</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>52 of 300</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>14:20:59</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>278.85</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O180" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>177</v>
+      </c>
+      <c r="B181" t="n">
+        <v>7.384482955195266</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>lst, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>3</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>850</v>
+      </c>
+      <c r="I181" t="n">
+        <v>16</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>31 of 300</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>14:21:10</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>165.77</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O181" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>175</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.481637176118892</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>lst, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>850</v>
+      </c>
+      <c r="I182" t="n">
+        <v>32</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>67 of 300</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>14:24:38</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>207.06</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O182" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>175</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6.401119422730141</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>850</v>
+      </c>
+      <c r="I183" t="n">
+        <v>32</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>106 of 300</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>14:26:26</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>325.03</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O183" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>176</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.646150629516185</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>lst, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>850</v>
+      </c>
+      <c r="I184" t="n">
+        <v>32</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>77 of 300</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>14:28:36</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>235.98</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O184" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>176</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.83177511586147</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>850</v>
+      </c>
+      <c r="I185" t="n">
+        <v>32</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>88 of 300</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>14:30:59</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>272.09</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O185" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>177</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.23342818188843</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>lst, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>3</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>850</v>
+      </c>
+      <c r="I186" t="n">
+        <v>32</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>69 of 300</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>14:32:10</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>213.49</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O186" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>177</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.857170510980731</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>3</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>850</v>
+      </c>
+      <c r="I187" t="n">
+        <v>32</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>73 of 300</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>14:34:46</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>225.33</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O187" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>175</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.629193144725916</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>lst, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>850</v>
+      </c>
+      <c r="I188" t="n">
+        <v>64</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>83 of 300</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>14:34:53</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>161.64</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O188" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>176</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6.288277000736284</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>lst, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>2</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>850</v>
+      </c>
+      <c r="I189" t="n">
+        <v>64</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>57 of 300</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>14:36:46</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>111.52</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O189" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>175</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.446114469368442</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>850</v>
+      </c>
+      <c r="I190" t="n">
+        <v>64</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>112 of 300</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>14:38:25</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>217.37</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O190" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>177</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.715012800324637</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>lst, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>3</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>850</v>
+      </c>
+      <c r="I191" t="n">
+        <v>64</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>138 of 300</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>14:41:14</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>266.44</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O191" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>176</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.592591796375173</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>850</v>
+      </c>
+      <c r="I192" t="n">
+        <v>64</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>96 of 300</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>14:41:33</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>187.56</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O192" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>177</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.49100666601676</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>lst, ndvi, month, discharge, lat, lon</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>42 cells</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>3</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>850</v>
+      </c>
+      <c r="I193" t="n">
+        <v>64</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>131 of 300</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>14:45:48</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>252.97</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O193" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/official_results/baseline_CNN_results.xlsx
+++ b/official_results/baseline_CNN_results.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O193"/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,79 +434,84 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Experiment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Input</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Split_id</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Optimizer</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>nº samples</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Batch size</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Epochs</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Resolution</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Normalized Variables</t>
         </is>
       </c>
     </row>
@@ -560,6 +577,11 @@
       <c r="O2" t="n">
         <v>8</v>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -623,6 +645,11 @@
       <c r="O3" t="n">
         <v>8</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -686,6 +713,11 @@
       <c r="O4" t="n">
         <v>8</v>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -749,6 +781,11 @@
       <c r="O5" t="n">
         <v>8</v>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -812,6 +849,11 @@
       <c r="O6" t="n">
         <v>8</v>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -875,6 +917,11 @@
       <c r="O7" t="n">
         <v>8</v>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -938,6 +985,11 @@
       <c r="O8" t="n">
         <v>16</v>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1001,6 +1053,11 @@
       <c r="O9" t="n">
         <v>16</v>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1064,6 +1121,11 @@
       <c r="O10" t="n">
         <v>16</v>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1127,6 +1189,11 @@
       <c r="O11" t="n">
         <v>16</v>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1190,6 +1257,11 @@
       <c r="O12" t="n">
         <v>16</v>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1253,6 +1325,11 @@
       <c r="O13" t="n">
         <v>16</v>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1316,6 +1393,11 @@
       <c r="O14" t="n">
         <v>32</v>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1379,6 +1461,11 @@
       <c r="O15" t="n">
         <v>32</v>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1442,6 +1529,11 @@
       <c r="O16" t="n">
         <v>32</v>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1505,6 +1597,11 @@
       <c r="O17" t="n">
         <v>32</v>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1568,6 +1665,11 @@
       <c r="O18" t="n">
         <v>32</v>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1631,6 +1733,11 @@
       <c r="O19" t="n">
         <v>32</v>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1694,6 +1801,11 @@
       <c r="O20" t="n">
         <v>8</v>
       </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1757,6 +1869,11 @@
       <c r="O21" t="n">
         <v>8</v>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1820,6 +1937,11 @@
       <c r="O22" t="n">
         <v>16</v>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1883,6 +2005,11 @@
       <c r="O23" t="n">
         <v>8</v>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1946,6 +2073,11 @@
       <c r="O24" t="n">
         <v>32</v>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2009,6 +2141,11 @@
       <c r="O25" t="n">
         <v>8</v>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2072,6 +2209,11 @@
       <c r="O26" t="n">
         <v>16</v>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2135,6 +2277,11 @@
       <c r="O27" t="n">
         <v>32</v>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2198,6 +2345,11 @@
       <c r="O28" t="n">
         <v>16</v>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2261,6 +2413,11 @@
       <c r="O29" t="n">
         <v>8</v>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2324,6 +2481,11 @@
       <c r="O30" t="n">
         <v>32</v>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2387,6 +2549,11 @@
       <c r="O31" t="n">
         <v>16</v>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2450,6 +2617,11 @@
       <c r="O32" t="n">
         <v>8</v>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2513,6 +2685,11 @@
       <c r="O33" t="n">
         <v>32</v>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2576,6 +2753,11 @@
       <c r="O34" t="n">
         <v>16</v>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2639,6 +2821,11 @@
       <c r="O35" t="n">
         <v>16</v>
       </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2702,6 +2889,11 @@
       <c r="O36" t="n">
         <v>32</v>
       </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2765,6 +2957,11 @@
       <c r="O37" t="n">
         <v>32</v>
       </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2828,6 +3025,11 @@
       <c r="O38" t="n">
         <v>32</v>
       </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2891,6 +3093,11 @@
       <c r="O39" t="n">
         <v>32</v>
       </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2954,6 +3161,11 @@
       <c r="O40" t="n">
         <v>32</v>
       </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3017,6 +3229,11 @@
       <c r="O41" t="n">
         <v>32</v>
       </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3080,6 +3297,11 @@
       <c r="O42" t="n">
         <v>32</v>
       </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3143,6 +3365,11 @@
       <c r="O43" t="n">
         <v>32</v>
       </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3206,6 +3433,11 @@
       <c r="O44" t="n">
         <v>32</v>
       </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3269,6 +3501,11 @@
       <c r="O45" t="n">
         <v>32</v>
       </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3332,6 +3569,11 @@
       <c r="O46" t="n">
         <v>32</v>
       </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3395,6 +3637,11 @@
       <c r="O47" t="n">
         <v>32</v>
       </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3458,6 +3705,11 @@
       <c r="O48" t="n">
         <v>32</v>
       </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3521,6 +3773,11 @@
       <c r="O49" t="n">
         <v>32</v>
       </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3584,6 +3841,11 @@
       <c r="O50" t="n">
         <v>32</v>
       </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3647,6 +3909,11 @@
       <c r="O51" t="n">
         <v>32</v>
       </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3710,6 +3977,11 @@
       <c r="O52" t="n">
         <v>32</v>
       </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3773,6 +4045,11 @@
       <c r="O53" t="n">
         <v>32</v>
       </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3836,6 +4113,11 @@
       <c r="O54" t="n">
         <v>8</v>
       </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3899,6 +4181,11 @@
       <c r="O55" t="n">
         <v>16</v>
       </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3962,6 +4249,11 @@
       <c r="O56" t="n">
         <v>8</v>
       </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4025,6 +4317,11 @@
       <c r="O57" t="n">
         <v>32</v>
       </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4088,6 +4385,11 @@
       <c r="O58" t="n">
         <v>16</v>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4151,6 +4453,11 @@
       <c r="O59" t="n">
         <v>32</v>
       </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4214,6 +4521,11 @@
       <c r="O60" t="n">
         <v>8</v>
       </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4277,6 +4589,11 @@
       <c r="O61" t="n">
         <v>16</v>
       </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4340,6 +4657,11 @@
       <c r="O62" t="n">
         <v>32</v>
       </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4403,6 +4725,11 @@
       <c r="O63" t="n">
         <v>8</v>
       </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4466,6 +4793,11 @@
       <c r="O64" t="n">
         <v>16</v>
       </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4529,6 +4861,11 @@
       <c r="O65" t="n">
         <v>32</v>
       </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4592,6 +4929,11 @@
       <c r="O66" t="n">
         <v>8</v>
       </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4655,6 +4997,11 @@
       <c r="O67" t="n">
         <v>16</v>
       </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4718,6 +5065,11 @@
       <c r="O68" t="n">
         <v>32</v>
       </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4781,6 +5133,11 @@
       <c r="O69" t="n">
         <v>8</v>
       </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4844,6 +5201,11 @@
       <c r="O70" t="n">
         <v>32</v>
       </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4907,6 +5269,11 @@
       <c r="O71" t="n">
         <v>16</v>
       </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4970,6 +5337,11 @@
       <c r="O72" t="n">
         <v>8</v>
       </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5033,6 +5405,11 @@
       <c r="O73" t="n">
         <v>16</v>
       </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5096,6 +5473,11 @@
       <c r="O74" t="n">
         <v>8</v>
       </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5159,6 +5541,11 @@
       <c r="O75" t="n">
         <v>16</v>
       </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5222,6 +5609,11 @@
       <c r="O76" t="n">
         <v>8</v>
       </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5285,6 +5677,11 @@
       <c r="O77" t="n">
         <v>16</v>
       </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5348,6 +5745,11 @@
       <c r="O78" t="n">
         <v>8</v>
       </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5411,6 +5813,11 @@
       <c r="O79" t="n">
         <v>16</v>
       </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5474,6 +5881,11 @@
       <c r="O80" t="n">
         <v>8</v>
       </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5537,6 +5949,11 @@
       <c r="O81" t="n">
         <v>16</v>
       </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5600,6 +6017,11 @@
       <c r="O82" t="n">
         <v>16</v>
       </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5663,6 +6085,11 @@
       <c r="O83" t="n">
         <v>8</v>
       </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5726,6 +6153,11 @@
       <c r="O84" t="n">
         <v>16</v>
       </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5789,6 +6221,11 @@
       <c r="O85" t="n">
         <v>32</v>
       </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5852,6 +6289,11 @@
       <c r="O86" t="n">
         <v>8</v>
       </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5915,6 +6357,11 @@
       <c r="O87" t="n">
         <v>8</v>
       </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5978,6 +6425,11 @@
       <c r="O88" t="n">
         <v>32</v>
       </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6041,6 +6493,11 @@
       <c r="O89" t="n">
         <v>8</v>
       </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6104,6 +6561,11 @@
       <c r="O90" t="n">
         <v>32</v>
       </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6167,6 +6629,11 @@
       <c r="O91" t="n">
         <v>8</v>
       </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6230,6 +6697,11 @@
       <c r="O92" t="n">
         <v>32</v>
       </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6293,6 +6765,11 @@
       <c r="O93" t="n">
         <v>16</v>
       </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6356,6 +6833,11 @@
       <c r="O94" t="n">
         <v>8</v>
       </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6419,6 +6901,11 @@
       <c r="O95" t="n">
         <v>16</v>
       </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6482,6 +6969,11 @@
       <c r="O96" t="n">
         <v>32</v>
       </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6545,6 +7037,11 @@
       <c r="O97" t="n">
         <v>8</v>
       </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6608,6 +7105,11 @@
       <c r="O98" t="n">
         <v>16</v>
       </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6671,6 +7173,11 @@
       <c r="O99" t="n">
         <v>8</v>
       </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6734,6 +7241,11 @@
       <c r="O100" t="n">
         <v>32</v>
       </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6797,6 +7309,11 @@
       <c r="O101" t="n">
         <v>8</v>
       </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6860,6 +7377,11 @@
       <c r="O102" t="n">
         <v>16</v>
       </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6923,6 +7445,11 @@
       <c r="O103" t="n">
         <v>8</v>
       </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6986,6 +7513,11 @@
       <c r="O104" t="n">
         <v>32</v>
       </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7049,6 +7581,11 @@
       <c r="O105" t="n">
         <v>16</v>
       </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7112,6 +7649,11 @@
       <c r="O106" t="n">
         <v>8</v>
       </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7175,6 +7717,11 @@
       <c r="O107" t="n">
         <v>32</v>
       </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7238,6 +7785,11 @@
       <c r="O108" t="n">
         <v>16</v>
       </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7301,6 +7853,11 @@
       <c r="O109" t="n">
         <v>16</v>
       </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7364,6 +7921,11 @@
       <c r="O110" t="n">
         <v>32</v>
       </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7427,6 +7989,11 @@
       <c r="O111" t="n">
         <v>8</v>
       </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7490,6 +8057,11 @@
       <c r="O112" t="n">
         <v>16</v>
       </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7553,6 +8125,11 @@
       <c r="O113" t="n">
         <v>32</v>
       </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7616,6 +8193,11 @@
       <c r="O114" t="n">
         <v>8</v>
       </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7679,6 +8261,11 @@
       <c r="O115" t="n">
         <v>16</v>
       </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7742,6 +8329,11 @@
       <c r="O116" t="n">
         <v>32</v>
       </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7805,6 +8397,11 @@
       <c r="O117" t="n">
         <v>8</v>
       </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7868,6 +8465,11 @@
       <c r="O118" t="n">
         <v>8</v>
       </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7931,6 +8533,11 @@
       <c r="O119" t="n">
         <v>8</v>
       </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7994,6 +8601,11 @@
       <c r="O120" t="n">
         <v>32</v>
       </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8057,6 +8669,11 @@
       <c r="O121" t="n">
         <v>16</v>
       </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8120,6 +8737,11 @@
       <c r="O122" t="n">
         <v>16</v>
       </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8183,6 +8805,11 @@
       <c r="O123" t="n">
         <v>16</v>
       </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -8246,6 +8873,11 @@
       <c r="O124" t="n">
         <v>8</v>
       </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -8309,13 +8941,18 @@
       <c r="O125" t="n">
         <v>16</v>
       </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>85</v>
       </c>
       <c r="B126" t="n">
-        <v>9.267200967459697</v>
+        <v>9.267200967459695</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -8371,6 +9008,11 @@
       </c>
       <c r="O126" t="n">
         <v>16</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -8435,6 +9077,11 @@
       <c r="O127" t="n">
         <v>8</v>
       </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8498,6 +9145,11 @@
       <c r="O128" t="n">
         <v>8</v>
       </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8561,6 +9213,11 @@
       <c r="O129" t="n">
         <v>16</v>
       </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8624,6 +9281,11 @@
       <c r="O130" t="n">
         <v>64</v>
       </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8687,6 +9349,11 @@
       <c r="O131" t="n">
         <v>16</v>
       </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8750,6 +9417,11 @@
       <c r="O132" t="n">
         <v>64</v>
       </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8813,6 +9485,11 @@
       <c r="O133" t="n">
         <v>16</v>
       </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8876,6 +9553,11 @@
       <c r="O134" t="n">
         <v>64</v>
       </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8939,6 +9621,11 @@
       <c r="O135" t="n">
         <v>64</v>
       </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -9002,6 +9689,11 @@
       <c r="O136" t="n">
         <v>64</v>
       </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -9065,6 +9757,11 @@
       <c r="O137" t="n">
         <v>64</v>
       </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -9128,6 +9825,11 @@
       <c r="O138" t="n">
         <v>64</v>
       </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -9191,6 +9893,11 @@
       <c r="O139" t="n">
         <v>64</v>
       </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -9254,6 +9961,11 @@
       <c r="O140" t="n">
         <v>64</v>
       </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -9317,6 +10029,11 @@
       <c r="O141" t="n">
         <v>64</v>
       </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -9380,6 +10097,11 @@
       <c r="O142" t="n">
         <v>64</v>
       </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -9443,6 +10165,11 @@
       <c r="O143" t="n">
         <v>64</v>
       </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9506,6 +10233,11 @@
       <c r="O144" t="n">
         <v>64</v>
       </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9569,6 +10301,11 @@
       <c r="O145" t="n">
         <v>64</v>
       </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9632,6 +10369,11 @@
       <c r="O146" t="n">
         <v>64</v>
       </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9695,6 +10437,11 @@
       <c r="O147" t="n">
         <v>64</v>
       </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9758,6 +10505,11 @@
       <c r="O148" t="n">
         <v>64</v>
       </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9821,6 +10573,11 @@
       <c r="O149" t="n">
         <v>64</v>
       </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9884,6 +10641,11 @@
       <c r="O150" t="n">
         <v>64</v>
       </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9947,6 +10709,11 @@
       <c r="O151" t="n">
         <v>64</v>
       </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -10010,6 +10777,11 @@
       <c r="O152" t="n">
         <v>16</v>
       </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -10073,6 +10845,11 @@
       <c r="O153" t="n">
         <v>16</v>
       </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -10136,6 +10913,11 @@
       <c r="O154" t="n">
         <v>64</v>
       </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -10199,6 +10981,11 @@
       <c r="O155" t="n">
         <v>64</v>
       </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -10262,6 +11049,11 @@
       <c r="O156" t="n">
         <v>64</v>
       </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -10325,6 +11117,11 @@
       <c r="O157" t="n">
         <v>64</v>
       </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -10388,6 +11185,11 @@
       <c r="O158" t="n">
         <v>64</v>
       </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -10451,6 +11253,11 @@
       <c r="O159" t="n">
         <v>64</v>
       </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -10514,6 +11321,11 @@
       <c r="O160" t="n">
         <v>64</v>
       </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -10577,6 +11389,11 @@
       <c r="O161" t="n">
         <v>64</v>
       </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -10640,6 +11457,11 @@
       <c r="O162" t="n">
         <v>64</v>
       </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10703,6 +11525,11 @@
       <c r="O163" t="n">
         <v>64</v>
       </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10766,6 +11593,11 @@
       <c r="O164" t="n">
         <v>64</v>
       </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10829,6 +11661,11 @@
       <c r="O165" t="n">
         <v>64</v>
       </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10892,6 +11729,11 @@
       <c r="O166" t="n">
         <v>64</v>
       </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10955,6 +11797,11 @@
       <c r="O167" t="n">
         <v>64</v>
       </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -11018,6 +11865,11 @@
       <c r="O168" t="n">
         <v>64</v>
       </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -11081,6 +11933,11 @@
       <c r="O169" t="n">
         <v>64</v>
       </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -11144,6 +12001,11 @@
       <c r="O170" t="n">
         <v>64</v>
       </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -11207,6 +12069,11 @@
       <c r="O171" t="n">
         <v>64</v>
       </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>altitude, direction, lst, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -11270,6 +12137,11 @@
       <c r="O172" t="n">
         <v>64</v>
       </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -11333,6 +12205,11 @@
       <c r="O173" t="n">
         <v>64</v>
       </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -11396,6 +12273,11 @@
       <c r="O174" t="n">
         <v>64</v>
       </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -11459,6 +12341,11 @@
       <c r="O175" t="n">
         <v>64</v>
       </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>altitude, direction, discharge, lat, lon, lst, month, ndvi, slope</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -11522,6 +12409,11 @@
       <c r="O176" t="n">
         <v>64</v>
       </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -11585,6 +12477,11 @@
       <c r="O177" t="n">
         <v>64</v>
       </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -11648,6 +12545,11 @@
       <c r="O178" t="n">
         <v>64</v>
       </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11711,6 +12613,11 @@
       <c r="O179" t="n">
         <v>64</v>
       </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -11774,6 +12681,11 @@
       <c r="O180" t="n">
         <v>64</v>
       </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -11837,6 +12749,11 @@
       <c r="O181" t="n">
         <v>64</v>
       </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11900,6 +12817,11 @@
       <c r="O182" t="n">
         <v>64</v>
       </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11963,6 +12885,11 @@
       <c r="O183" t="n">
         <v>64</v>
       </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -12026,6 +12953,11 @@
       <c r="O184" t="n">
         <v>64</v>
       </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -12089,6 +13021,11 @@
       <c r="O185" t="n">
         <v>64</v>
       </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -12152,6 +13089,11 @@
       <c r="O186" t="n">
         <v>64</v>
       </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -12215,6 +13157,11 @@
       <c r="O187" t="n">
         <v>64</v>
       </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -12278,6 +13225,11 @@
       <c r="O188" t="n">
         <v>64</v>
       </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -12341,6 +13293,11 @@
       <c r="O189" t="n">
         <v>64</v>
       </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -12404,6 +13361,11 @@
       <c r="O190" t="n">
         <v>64</v>
       </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -12467,6 +13429,11 @@
       <c r="O191" t="n">
         <v>64</v>
       </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -12530,6 +13497,11 @@
       <c r="O192" t="n">
         <v>64</v>
       </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -12592,6 +13564,1643 @@
       </c>
       <c r="O193" t="n">
         <v>64</v>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>discharge, lat, lon, lst, month, ndvi</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.87244487493751</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I194" t="n">
+        <v>32</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>48 of 300</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>15:11:40</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>218.61</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O194" t="n">
+        <v>64</v>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6.003038021628321</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I195" t="n">
+        <v>32</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>71 of 300</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>15:16:48</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>305.95</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O195" t="n">
+        <v>64</v>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.532910138948437</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I196" t="n">
+        <v>64</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>64 of 300</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>15:19:51</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>181.27</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O196" t="n">
+        <v>64</v>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>3</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.046652305316684</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I197" t="n">
+        <v>64</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>75 of 300</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>15:23:18</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>204.64</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O197" t="n">
+        <v>64</v>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>3</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.988381988986773</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I198" t="n">
+        <v>128</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>133 of 300</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>15:27:52</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>272.54</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O198" t="n">
+        <v>64</v>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>4</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.233389795875351</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>2</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I199" t="n">
+        <v>32</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>58 of 300</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>15:29:55</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>287.89</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O199" t="n">
+        <v>64</v>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>4</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.775533126573963</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I200" t="n">
+        <v>128</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>111 of 300</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>15:31:48</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>233.6</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O200" t="n">
+        <v>64</v>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>5</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.175078410328972</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>2</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I201" t="n">
+        <v>32</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>54 of 300</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>15:34:07</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>250.21</v>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O201" t="n">
+        <v>64</v>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>4</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.530199818894502</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>3</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I202" t="n">
+        <v>32</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>104 of 300</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>15:34:22</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>494.73</v>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O202" t="n">
+        <v>64</v>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>5</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.474341763277049</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>3</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I203" t="n">
+        <v>32</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>46 of 300</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>15:37:45</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>200.47</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O203" t="n">
+        <v>64</v>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>5</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.486280925157798</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>2</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I204" t="n">
+        <v>64</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>116 of 300</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>15:39:55</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>345.54</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O204" t="n">
+        <v>64</v>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>6</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.138927778931869</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I205" t="n">
+        <v>64</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>64 of 300</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>15:43:03</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>186.65</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O205" t="n">
+        <v>64</v>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>5</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.885785086252452</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>3</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I206" t="n">
+        <v>64</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>119 of 300</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>15:43:28</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>341.43</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O206" t="n">
+        <v>64</v>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>6</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.20516143624562</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>2</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I207" t="n">
+        <v>128</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>123 of 300</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>15:47:30</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O207" t="n">
+        <v>64</v>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>6</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.77810040474604</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>3</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I208" t="n">
+        <v>64</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>108 of 300</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>15:48:31</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>301.57</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O208" t="n">
+        <v>64</v>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>7</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.102245810351469</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I209" t="n">
+        <v>128</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>138 of 300</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>15:52:23</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>290.87</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O209" t="n">
+        <v>64</v>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>6</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.888247603008883</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>3</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I210" t="n">
+        <v>128</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>149 of 300</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>15:53:35</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>301.87</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+      <c r="O210" t="n">
+        <v>64</v>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>7</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.968356351492794</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>74 cells</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>3</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I211" t="n">
+        <v>128</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>144 of 300</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>15:58:21</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>284.47</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O211" t="n">
+        <v>64</v>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>100</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.061210832631886</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I212" t="n">
+        <v>64</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>66 of 300</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>13:37:11</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>291.34</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O212" t="n">
+        <v>64</v>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>100</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.998228347059929</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>2</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I213" t="n">
+        <v>64</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>85 of 300</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>13:43:28</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>375.22</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O213" t="n">
+        <v>64</v>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>100</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.905392900529655</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>3</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I214" t="n">
+        <v>64</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>83 of 300</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>13:49:57</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>386.69</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O214" t="n">
+        <v>64</v>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.884714481465535</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I215" t="n">
+        <v>128</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>11:16:32</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>900.1</v>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O215" t="n">
+        <v>64</v>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.909993493117874</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>2</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I216" t="n">
+        <v>128</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>11:31:30</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>895.51</v>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O216" t="n">
+        <v>64</v>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.890451894744107</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>3</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I217" t="n">
+        <v>128</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>11:46:34</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>901.76</v>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O217" t="n">
+        <v>64</v>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
       </c>
     </row>
   </sheetData>
